--- a/Machine Learning/Book1.xlsx
+++ b/Machine Learning/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Development\Projects\GitHub\hoya-hack\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60FFEF4F-E762-4F5C-A279-7BF8367E657D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687E84B-BC9A-4530-89B8-2B460BD2C7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
+    <workbookView xWindow="1176" yWindow="2148" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,22 +32,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,7 +65,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,26 +380,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F9C88-7026-4E70-8441-33EDB8F1C001}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="CW101:DA104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="101" max="101" width="22.5546875" customWidth="1"/>
+    <col min="102" max="102" width="18.77734375" customWidth="1"/>
+    <col min="103" max="103" width="22.33203125" customWidth="1"/>
+    <col min="104" max="104" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="101" spans="101:105" x14ac:dyDescent="0.3">
+      <c r="CW101" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX101" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY101" s="1">
+        <v>1400</v>
+      </c>
+      <c r="CZ101" s="1">
+        <v>1967</v>
+      </c>
+      <c r="DA101" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="102" spans="101:105" x14ac:dyDescent="0.3">
+      <c r="CW102" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX102" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY102" s="1">
+        <v>1300</v>
+      </c>
+      <c r="CZ102" s="1">
+        <v>1984</v>
+      </c>
+      <c r="DA102" s="1">
+        <v>400200</v>
+      </c>
+    </row>
+    <row r="103" spans="101:105" x14ac:dyDescent="0.3">
+      <c r="CW103" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX103" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY103" s="1">
+        <v>900</v>
+      </c>
+      <c r="CZ103" s="1">
+        <v>1989</v>
+      </c>
+      <c r="DA103" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="104" spans="101:105" x14ac:dyDescent="0.3">
+      <c r="CW104" s="1">
+        <v>4</v>
+      </c>
+      <c r="CX104" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY104" s="1">
+        <v>2900</v>
+      </c>
+      <c r="CZ104" s="1">
+        <v>1955</v>
+      </c>
+      <c r="DA104" s="1">
+        <v>640000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Machine Learning/Book1.xlsx
+++ b/Machine Learning/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Development\Projects\GitHub\hoya-hack\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687E84B-BC9A-4530-89B8-2B460BD2C7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11F854-1169-4190-8D93-309889A6D4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="2148" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
+    <workbookView xWindow="1524" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,36 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>MMULT(MINVERSE(A1:D11),E1:E11)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,85 +410,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F9C88-7026-4E70-8441-33EDB8F1C001}">
-  <dimension ref="CW101:DA104"/>
+  <dimension ref="CW101:WG604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="101" max="101" width="22.5546875" customWidth="1"/>
-    <col min="102" max="102" width="18.77734375" customWidth="1"/>
-    <col min="103" max="103" width="22.33203125" customWidth="1"/>
-    <col min="104" max="104" width="20.44140625" customWidth="1"/>
+    <col min="601" max="601" width="22.5546875" customWidth="1"/>
+    <col min="602" max="602" width="18.77734375" customWidth="1"/>
+    <col min="603" max="603" width="22.33203125" customWidth="1"/>
+    <col min="604" max="604" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="101" spans="101:105" x14ac:dyDescent="0.3">
-      <c r="CW101" s="1">
+    <row r="101" spans="101:111" x14ac:dyDescent="0.3">
+      <c r="CW101">
+        <v>1</v>
+      </c>
+      <c r="CX101">
+        <v>1</v>
+      </c>
+      <c r="CY101">
+        <v>1</v>
+      </c>
+      <c r="CZ101">
+        <v>1</v>
+      </c>
+      <c r="DA101">
+        <v>1</v>
+      </c>
+      <c r="DB101">
+        <f t="shared" ref="DB101:DF104" si="0">VALUE(CW101)</f>
+        <v>1</v>
+      </c>
+      <c r="DC101">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DD101">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DE101">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DF101">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DG101" t="e" cm="1">
+        <f t="array" ref="DG101">MMULT(MINVERSE(DB101:DE104),DF101:DF104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="101:111" x14ac:dyDescent="0.3">
+      <c r="CW102">
+        <v>1</v>
+      </c>
+      <c r="CX102">
+        <v>1</v>
+      </c>
+      <c r="CY102">
+        <v>1</v>
+      </c>
+      <c r="CZ102">
+        <v>1</v>
+      </c>
+      <c r="DA102">
+        <v>1</v>
+      </c>
+      <c r="DB102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DC102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DD102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DE102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DF102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="101:111" x14ac:dyDescent="0.3">
+      <c r="CW103">
+        <v>1</v>
+      </c>
+      <c r="CX103">
+        <v>1</v>
+      </c>
+      <c r="CY103">
+        <v>1</v>
+      </c>
+      <c r="CZ103">
+        <v>1</v>
+      </c>
+      <c r="DA103">
+        <v>1</v>
+      </c>
+      <c r="DB103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DC103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DD103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DE103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DF103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="101:111" x14ac:dyDescent="0.3">
+      <c r="CW104">
+        <v>1</v>
+      </c>
+      <c r="CX104">
+        <v>1</v>
+      </c>
+      <c r="CY104">
+        <v>1</v>
+      </c>
+      <c r="CZ104">
+        <v>1</v>
+      </c>
+      <c r="DA104">
+        <v>1</v>
+      </c>
+      <c r="DB104">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DC104">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DD104">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DE104">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DF104">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS201">
+        <v>3</v>
+      </c>
+      <c r="GT201">
+        <v>1</v>
+      </c>
+      <c r="GU201">
+        <v>1180</v>
+      </c>
+      <c r="GV201">
+        <v>1955</v>
+      </c>
+      <c r="GW201">
+        <v>221900</v>
+      </c>
+      <c r="GY201" t="e" cm="1">
+        <f t="array" ref="GY201">MMULT(MINVERSE(GS201:GV210),GW201:GW210)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="202" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS202">
+        <v>3</v>
+      </c>
+      <c r="GT202">
+        <v>2.25</v>
+      </c>
+      <c r="GU202">
+        <v>2570</v>
+      </c>
+      <c r="GV202">
+        <v>1951</v>
+      </c>
+      <c r="GW202">
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="203" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS203">
         <v>2</v>
       </c>
-      <c r="CX101" s="1">
+      <c r="GT203">
+        <v>1</v>
+      </c>
+      <c r="GU203">
+        <v>770</v>
+      </c>
+      <c r="GV203">
+        <v>1933</v>
+      </c>
+      <c r="GW203">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="204" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS204">
+        <v>4</v>
+      </c>
+      <c r="GT204">
+        <v>3</v>
+      </c>
+      <c r="GU204">
+        <v>1960</v>
+      </c>
+      <c r="GV204">
+        <v>1965</v>
+      </c>
+      <c r="GW204">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="205" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS205">
+        <v>3</v>
+      </c>
+      <c r="GT205">
         <v>2</v>
       </c>
-      <c r="CY101" s="1">
+      <c r="GU205">
+        <v>1680</v>
+      </c>
+      <c r="GV205">
+        <v>1987</v>
+      </c>
+      <c r="GW205">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="206" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS206">
+        <v>4</v>
+      </c>
+      <c r="GT206">
+        <v>4.5</v>
+      </c>
+      <c r="GU206">
+        <v>5420</v>
+      </c>
+      <c r="GV206">
+        <v>2001</v>
+      </c>
+      <c r="GW206">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="207" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS207">
+        <v>3</v>
+      </c>
+      <c r="GT207">
+        <v>2.25</v>
+      </c>
+      <c r="GU207">
+        <v>1715</v>
+      </c>
+      <c r="GV207">
+        <v>1995</v>
+      </c>
+      <c r="GW207">
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="208" spans="201:207" x14ac:dyDescent="0.3">
+      <c r="GS208">
+        <v>3</v>
+      </c>
+      <c r="GT208">
+        <v>1.5</v>
+      </c>
+      <c r="GU208">
+        <v>1060</v>
+      </c>
+      <c r="GV208">
+        <v>1963</v>
+      </c>
+      <c r="GW208">
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="209" spans="201:205" x14ac:dyDescent="0.3">
+      <c r="GS209">
+        <v>3</v>
+      </c>
+      <c r="GT209">
+        <v>1</v>
+      </c>
+      <c r="GU209">
+        <v>1780</v>
+      </c>
+      <c r="GV209">
+        <v>1960</v>
+      </c>
+      <c r="GW209">
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="210" spans="201:205" x14ac:dyDescent="0.3">
+      <c r="GS210">
+        <v>3</v>
+      </c>
+      <c r="GT210">
+        <v>2.5</v>
+      </c>
+      <c r="GU210">
+        <v>1890</v>
+      </c>
+      <c r="GV210">
+        <v>2003</v>
+      </c>
+      <c r="GW210">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="301" spans="301:307" x14ac:dyDescent="0.3">
+      <c r="KO301">
+        <v>3</v>
+      </c>
+      <c r="KQ301">
+        <v>1180</v>
+      </c>
+      <c r="KR301">
+        <v>1955</v>
+      </c>
+      <c r="KS301">
+        <v>221900</v>
+      </c>
+      <c r="KU301" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="301:307" x14ac:dyDescent="0.3">
+      <c r="KO302">
+        <v>3</v>
+      </c>
+      <c r="KP302">
+        <v>2.25</v>
+      </c>
+      <c r="KQ302">
+        <v>2570</v>
+      </c>
+      <c r="KR302">
+        <v>1951</v>
+      </c>
+      <c r="KS302">
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="303" spans="301:307" x14ac:dyDescent="0.3">
+      <c r="KO303">
+        <v>2</v>
+      </c>
+      <c r="KP303">
+        <v>1</v>
+      </c>
+      <c r="KQ303">
+        <v>770</v>
+      </c>
+      <c r="KR303">
+        <v>1933</v>
+      </c>
+      <c r="KS303">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="304" spans="301:307" x14ac:dyDescent="0.3">
+      <c r="KO304">
+        <v>4</v>
+      </c>
+      <c r="KP304">
+        <v>3</v>
+      </c>
+      <c r="KQ304">
+        <v>1960</v>
+      </c>
+      <c r="KR304">
+        <v>1965</v>
+      </c>
+      <c r="KS304">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="305" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO305">
+        <v>3</v>
+      </c>
+      <c r="KP305">
+        <v>2</v>
+      </c>
+      <c r="KQ305">
+        <v>1680</v>
+      </c>
+      <c r="KR305">
+        <v>1987</v>
+      </c>
+      <c r="KS305">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="306" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO306">
+        <v>4</v>
+      </c>
+      <c r="KP306">
+        <v>4.5</v>
+      </c>
+      <c r="KQ306">
+        <v>5420</v>
+      </c>
+      <c r="KR306">
+        <v>2001</v>
+      </c>
+      <c r="KS306">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="307" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO307">
+        <v>3</v>
+      </c>
+      <c r="KP307">
+        <v>2.25</v>
+      </c>
+      <c r="KQ307">
+        <v>1715</v>
+      </c>
+      <c r="KR307">
+        <v>1995</v>
+      </c>
+      <c r="KS307">
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="308" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO308">
+        <v>3</v>
+      </c>
+      <c r="KP308">
+        <v>1.5</v>
+      </c>
+      <c r="KQ308">
+        <v>1060</v>
+      </c>
+      <c r="KR308">
+        <v>1963</v>
+      </c>
+      <c r="KS308">
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="309" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO309">
+        <v>3</v>
+      </c>
+      <c r="KP309">
+        <v>1</v>
+      </c>
+      <c r="KQ309">
+        <v>1750</v>
+      </c>
+      <c r="KR309">
+        <v>1960</v>
+      </c>
+      <c r="KS309">
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="310" spans="301:305" x14ac:dyDescent="0.3">
+      <c r="KO310">
+        <v>3</v>
+      </c>
+      <c r="KP310">
+        <v>2.5</v>
+      </c>
+      <c r="KQ310">
+        <v>1890</v>
+      </c>
+      <c r="KR310">
+        <v>2003</v>
+      </c>
+      <c r="KS310">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="401" spans="401:405" x14ac:dyDescent="0.3">
+      <c r="OK401">
+        <v>2</v>
+      </c>
+      <c r="OL401">
+        <v>2</v>
+      </c>
+      <c r="OM401">
+        <v>2000</v>
+      </c>
+      <c r="ON401">
+        <v>3215501</v>
+      </c>
+      <c r="OO401">
+        <v>10301604045</v>
+      </c>
+    </row>
+    <row r="402" spans="401:405" x14ac:dyDescent="0.3">
+      <c r="OK402">
+        <v>10</v>
+      </c>
+      <c r="OL402">
+        <v>235</v>
+      </c>
+      <c r="OM402">
+        <v>123</v>
+      </c>
+      <c r="ON402">
+        <v>1246145</v>
+      </c>
+      <c r="OO402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="401:405" x14ac:dyDescent="0.3">
+      <c r="OK403">
+        <v>461045</v>
+      </c>
+      <c r="OL403">
+        <v>23450</v>
+      </c>
+      <c r="OM403">
+        <v>1325406</v>
+      </c>
+      <c r="ON403">
+        <v>104015</v>
+      </c>
+      <c r="OO403">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="404" spans="401:405" x14ac:dyDescent="0.3">
+      <c r="OK404">
+        <v>1045</v>
+      </c>
+      <c r="OL404">
+        <v>4501</v>
+      </c>
+      <c r="OM404">
+        <v>540</v>
+      </c>
+      <c r="ON404">
+        <v>40</v>
+      </c>
+      <c r="OO404">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="601" spans="601:605" x14ac:dyDescent="0.3">
+      <c r="WC601" s="1">
+        <v>2</v>
+      </c>
+      <c r="WD601" s="1">
+        <v>2</v>
+      </c>
+      <c r="WE601" s="1">
         <v>1400</v>
       </c>
-      <c r="CZ101" s="1">
+      <c r="WF601" s="1">
         <v>1967</v>
       </c>
-      <c r="DA101" s="1">
+      <c r="WG601" s="1">
         <v>220000</v>
       </c>
     </row>
-    <row r="102" spans="101:105" x14ac:dyDescent="0.3">
-      <c r="CW102" s="1">
-        <v>3</v>
-      </c>
-      <c r="CX102" s="1">
+    <row r="602" spans="601:605" x14ac:dyDescent="0.3">
+      <c r="WC602" s="1">
+        <v>3</v>
+      </c>
+      <c r="WD602" s="1">
         <v>2</v>
       </c>
-      <c r="CY102" s="1">
+      <c r="WE602" s="1">
         <v>1300</v>
       </c>
-      <c r="CZ102" s="1">
+      <c r="WF602" s="1">
         <v>1984</v>
       </c>
-      <c r="DA102" s="1">
+      <c r="WG602" s="1">
         <v>400200</v>
       </c>
     </row>
-    <row r="103" spans="101:105" x14ac:dyDescent="0.3">
-      <c r="CW103" s="1">
+    <row r="603" spans="601:605" x14ac:dyDescent="0.3">
+      <c r="WC603" s="1">
         <v>2</v>
       </c>
-      <c r="CX103" s="1">
+      <c r="WD603" s="1">
         <v>2</v>
       </c>
-      <c r="CY103" s="1">
+      <c r="WE603" s="1">
         <v>900</v>
       </c>
-      <c r="CZ103" s="1">
+      <c r="WF603" s="1">
         <v>1989</v>
       </c>
-      <c r="DA103" s="1">
+      <c r="WG603" s="1">
         <v>250000</v>
       </c>
     </row>
-    <row r="104" spans="101:105" x14ac:dyDescent="0.3">
-      <c r="CW104" s="1">
+    <row r="604" spans="601:605" x14ac:dyDescent="0.3">
+      <c r="WC604" s="1">
         <v>4</v>
       </c>
-      <c r="CX104" s="1">
-        <v>3</v>
-      </c>
-      <c r="CY104" s="1">
+      <c r="WD604" s="1">
+        <v>3</v>
+      </c>
+      <c r="WE604" s="1">
         <v>2900</v>
       </c>
-      <c r="CZ104" s="1">
+      <c r="WF604" s="1">
         <v>1955</v>
       </c>
-      <c r="DA104" s="1">
+      <c r="WG604" s="1">
         <v>640000</v>
       </c>
     </row>

--- a/Machine Learning/Book1.xlsx
+++ b/Machine Learning/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Development\Projects\GitHub\hoya-hack\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11F854-1169-4190-8D93-309889A6D4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EBE650-CA3C-4D40-8080-971558C94F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
+    <workbookView xWindow="2016" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,649 +410,2272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F9C88-7026-4E70-8441-33EDB8F1C001}">
-  <dimension ref="CW101:WG604"/>
+  <dimension ref="A1:BMO1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="601" max="601" width="22.5546875" customWidth="1"/>
-    <col min="602" max="602" width="18.77734375" customWidth="1"/>
-    <col min="603" max="603" width="22.33203125" customWidth="1"/>
-    <col min="604" max="604" width="20.44140625" customWidth="1"/>
+    <col min="1011" max="1011" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1701" max="1701" width="22.5546875" customWidth="1"/>
+    <col min="1702" max="1702" width="18.77734375" customWidth="1"/>
+    <col min="1703" max="1703" width="22.33203125" customWidth="1"/>
+    <col min="1704" max="1704" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="101" spans="101:111" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="K1" cm="1">
+        <f t="array" ref="K1:K5">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(A1:E4),(A1:E4))),TRANSPOSE(A1:E4)),F1:F4)</f>
+        <v>10.4375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>-0.7734375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1.12109375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>-1.439453125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0.8203125</v>
+      </c>
+    </row>
+    <row r="101" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW101">
         <v>1</v>
       </c>
       <c r="CX101">
-        <v>1</v>
+        <f>VALUE(3)</f>
+        <v>3</v>
       </c>
       <c r="CY101">
-        <v>1</v>
+        <f>VALUE(5)</f>
+        <v>5</v>
       </c>
       <c r="CZ101">
-        <v>1</v>
+        <f>VALUE(4)</f>
+        <v>4</v>
       </c>
       <c r="DA101">
-        <v>1</v>
+        <f>VALUE(2)</f>
+        <v>2</v>
       </c>
       <c r="DB101">
-        <f t="shared" ref="DB101:DF104" si="0">VALUE(CW101)</f>
-        <v>1</v>
-      </c>
-      <c r="DC101">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="DG101" cm="1">
+        <f t="array" ref="DG101:DK105">MMULT(TRANSPOSE(CW101:DA104),(CW101:DA104))</f>
+        <v>4</v>
+      </c>
+      <c r="DH101">
+        <v>18</v>
+      </c>
+      <c r="DI101">
+        <v>13</v>
+      </c>
+      <c r="DJ101">
+        <v>15</v>
+      </c>
+      <c r="DK101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW102">
+        <v>1</v>
+      </c>
+      <c r="CX102">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY102">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="CZ102">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="DA102">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="DB102">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="DG102">
+        <v>18</v>
+      </c>
+      <c r="DH102">
+        <v>90</v>
+      </c>
+      <c r="DI102">
+        <v>57</v>
+      </c>
+      <c r="DJ102">
+        <v>66</v>
+      </c>
+      <c r="DK102">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW103">
+        <v>1</v>
+      </c>
+      <c r="CX103">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="CY103">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CZ103">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="DA103">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="DB103">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="DG103">
+        <v>13</v>
+      </c>
+      <c r="DH103">
+        <v>57</v>
+      </c>
+      <c r="DI103">
+        <v>47</v>
+      </c>
+      <c r="DJ103">
+        <v>49</v>
+      </c>
+      <c r="DK103">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW104">
+        <v>1</v>
+      </c>
+      <c r="CX104">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="CY104">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CZ104">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="DA104">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="DB104">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="DG104">
+        <v>15</v>
+      </c>
+      <c r="DH104">
+        <v>66</v>
+      </c>
+      <c r="DI104">
+        <v>49</v>
+      </c>
+      <c r="DJ104">
+        <v>57</v>
+      </c>
+      <c r="DK104">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="DG105">
+        <v>14</v>
+      </c>
+      <c r="DH105">
+        <v>63</v>
+      </c>
+      <c r="DI105">
+        <v>41</v>
+      </c>
+      <c r="DJ105">
+        <v>54</v>
+      </c>
+      <c r="DK105">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="201:205" x14ac:dyDescent="0.3">
+      <c r="GS201">
+        <v>1</v>
+      </c>
+      <c r="GT201">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="GU201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="GV201">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="GW201">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="301:306" x14ac:dyDescent="0.3">
+      <c r="KO301">
+        <v>1</v>
+      </c>
+      <c r="KP301">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="KQ301">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KR301">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="KS301">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KT301">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="301:306" x14ac:dyDescent="0.3">
+      <c r="KO302">
+        <v>1</v>
+      </c>
+      <c r="KP302">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KQ302">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="KR302">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KS302">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KT302">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="301:306" x14ac:dyDescent="0.3">
+      <c r="KO303">
+        <v>1</v>
+      </c>
+      <c r="KP303">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="KQ303">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KR303">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KS303">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KT303">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="301:306" x14ac:dyDescent="0.3">
+      <c r="KO304">
+        <v>1</v>
+      </c>
+      <c r="KP304">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="KQ304">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KR304">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KS304">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KT304">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK401">
+        <v>1</v>
+      </c>
+      <c r="OL401">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="OM401">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ON401">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="OO401">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="OP401">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK402">
+        <v>1</v>
+      </c>
+      <c r="OL402">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="OM402">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ON402">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="OO402">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="OP402">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK403">
+        <v>1</v>
+      </c>
+      <c r="OL403">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="OM403">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ON403">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="OO403">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="OP403">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK404">
+        <v>1</v>
+      </c>
+      <c r="OL404">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="OM404">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ON404">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="OO404">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="OP404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG501">
+        <v>1</v>
+      </c>
+      <c r="SH501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="SI501">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SJ501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SK501">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SL501">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG502">
+        <v>1</v>
+      </c>
+      <c r="SH502">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI502">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SJ502">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SK502">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SL502">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG503">
+        <v>1</v>
+      </c>
+      <c r="SH503">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI503">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SJ503">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SK503">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SL503">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG504">
+        <v>1</v>
+      </c>
+      <c r="SH504">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="SI504">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SJ504">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SK504">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SL504">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG506" cm="1">
+        <f t="array" ref="SG506:SJ510">TRANSPOSE(SG501:SK504)</f>
+        <v>1</v>
+      </c>
+      <c r="SH506">
+        <v>1</v>
+      </c>
+      <c r="SI506">
+        <v>1</v>
+      </c>
+      <c r="SJ506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG507">
+        <v>5</v>
+      </c>
+      <c r="SH507">
+        <v>3</v>
+      </c>
+      <c r="SI507">
+        <v>3</v>
+      </c>
+      <c r="SJ507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG508">
+        <v>4</v>
+      </c>
+      <c r="SH508">
+        <v>4</v>
+      </c>
+      <c r="SI508">
+        <v>2</v>
+      </c>
+      <c r="SJ508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG509">
+        <v>3</v>
+      </c>
+      <c r="SH509">
+        <v>2</v>
+      </c>
+      <c r="SI509">
+        <v>4</v>
+      </c>
+      <c r="SJ509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="501:506" x14ac:dyDescent="0.3">
+      <c r="SG510">
+        <v>2</v>
+      </c>
+      <c r="SH510">
+        <v>1</v>
+      </c>
+      <c r="SI510">
+        <v>1</v>
+      </c>
+      <c r="SJ510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="601:606" x14ac:dyDescent="0.3">
+      <c r="WC601">
+        <v>1</v>
+      </c>
+      <c r="WD601">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="WE601">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WF601">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WG601">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WH601">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="601:606" x14ac:dyDescent="0.3">
+      <c r="WC602">
+        <v>1</v>
+      </c>
+      <c r="WD602">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WE602">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WF602">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WG602">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WH602">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="601:606" x14ac:dyDescent="0.3">
+      <c r="WC603">
+        <v>1</v>
+      </c>
+      <c r="WD603">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WE603">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF603">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG603">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="WH603">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604" spans="601:606" x14ac:dyDescent="0.3">
+      <c r="WC604">
+        <v>1</v>
+      </c>
+      <c r="WD604">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WE604">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF604">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG604">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WH604">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="601:606" x14ac:dyDescent="0.3">
+      <c r="WC606" t="e" cm="1">
+        <f t="array" ref="WC606">TRANSPOSE(Xmat)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="701" spans="701:706" x14ac:dyDescent="0.3">
+      <c r="ZY701">
+        <v>1</v>
+      </c>
+      <c r="ZZ701">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AAA701">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAB701">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAC701">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAD701">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="701:706" x14ac:dyDescent="0.3">
+      <c r="ZY702">
+        <v>1</v>
+      </c>
+      <c r="ZZ702">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAA702">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAB702">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAC702">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AAD702">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="701:706" x14ac:dyDescent="0.3">
+      <c r="ZY703">
+        <v>1</v>
+      </c>
+      <c r="ZZ703">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAA703">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AAB703">
+        <f>VALUE(23)</f>
+        <v>23</v>
+      </c>
+      <c r="AAC703">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAD703">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="701:706" x14ac:dyDescent="0.3">
+      <c r="ZY704">
+        <v>1</v>
+      </c>
+      <c r="ZZ704">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AAA704">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAB704">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAC704">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAD704">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU801">
+        <v>1</v>
+      </c>
+      <c r="ADV801">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW801">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ADX801">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="ADY801">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="ADZ801">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+    </row>
+    <row r="802" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU802">
+        <v>1</v>
+      </c>
+      <c r="ADV802">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW802">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="ADX802">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="ADY802">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="ADZ802">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="803" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU803">
+        <v>1</v>
+      </c>
+      <c r="ADV803">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ADW803">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ADX803">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="ADY803">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="ADZ803">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="804" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU804">
+        <v>1</v>
+      </c>
+      <c r="ADV804">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ADW804">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADX804">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="ADY804">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="ADZ804">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="805" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU805">
+        <v>1</v>
+      </c>
+      <c r="ADV805">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW805">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ADX805">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="ADY805">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="ADZ805">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="806" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU806">
+        <v>1</v>
+      </c>
+      <c r="ADV806">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ADW806">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="ADX806">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="ADY806">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="ADZ806">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="807" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU807">
+        <v>1</v>
+      </c>
+      <c r="ADV807">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW807">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="ADX807">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="ADY807">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="ADZ807">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="808" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU808">
+        <v>1</v>
+      </c>
+      <c r="ADV808">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW808">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="ADX808">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="ADY808">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="ADZ808">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="809" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU809">
+        <v>1</v>
+      </c>
+      <c r="ADV809">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW809">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ADX809">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="ADY809">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="ADZ809">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="810" spans="801:806" x14ac:dyDescent="0.3">
+      <c r="ADU810">
+        <v>1</v>
+      </c>
+      <c r="ADV810">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADW810">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="ADX810">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="ADY810">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="ADZ810">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="901" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ901">
+        <v>1</v>
+      </c>
+      <c r="AHR901">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS901">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT901">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="AHU901">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="AHV901">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="AHX901" t="e" cm="1">
+        <f t="array" ref="AHX901">MMULT(MINVERSE(AHQ901:AHU910),AHV901:AHV910)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="902" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ902">
+        <v>1</v>
+      </c>
+      <c r="AHR902">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS902">
+        <v>2.25</v>
+      </c>
+      <c r="AHT902">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="AHU902">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="AHV902">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="903" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ903">
+        <v>1</v>
+      </c>
+      <c r="AHR903">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHS903">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT903">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="AHU903">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="AHV903">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="904" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ904">
+        <v>1</v>
+      </c>
+      <c r="AHR904">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHS904">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHT904">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="AHU904">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="AHV904">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="905" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ905">
+        <v>1</v>
+      </c>
+      <c r="AHR905">
+        <v>3</v>
+      </c>
+      <c r="AHS905">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHT905">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="AHU905">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="AHV905">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="906" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ906">
+        <v>1</v>
+      </c>
+      <c r="AHR906">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHS906">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AHT906">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="AHU906">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="AHV906">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="907" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ907">
+        <v>1</v>
+      </c>
+      <c r="AHR907">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS907">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="AHT907">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="AHU907">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="AHV907">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="908" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ908">
+        <v>1</v>
+      </c>
+      <c r="AHR908">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS908">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AHT908">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="AHU908">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="AHV908">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="909" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ909">
+        <v>1</v>
+      </c>
+      <c r="AHR909">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS909">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT909">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="AHU909">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="AHV909">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="910" spans="901:908" x14ac:dyDescent="0.3">
+      <c r="AHQ910">
+        <v>1</v>
+      </c>
+      <c r="AHR910">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS910">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AHT910">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="AHU910">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="AHV910">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1001" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1001">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1001">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALO1001">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="ALP1001">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="ALQ1001">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="ALS1001" t="e" cm="1">
+        <f t="array" ref="ALS1001">MMULT(MINVERSE(ALM1001:ALP1010),ALQ1001:ALQ1010)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ALW1001" t="e" cm="1">
+        <f t="array" ref="ALW1001">MMULT(MINVERSE(ALM1001:ALP1010),ALQ1001:ALQ1010)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1002" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1002">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1002">
+        <v>2.25</v>
+      </c>
+      <c r="ALO1002">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="ALP1002">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="ALQ1002">
+        <f>VALUE(5328000)</f>
+        <v>5328000</v>
+      </c>
+    </row>
+    <row r="1003" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1003">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALN1003">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALO1003">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="ALP1003">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="ALQ1003">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1004" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1004">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALN1004">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALO1004">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="ALP1004">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="ALQ1004">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1005" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1005">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1005">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALO1005">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="ALP1005">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="ALQ1005">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1006" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1006">
+        <v>4</v>
+      </c>
+      <c r="ALN1006">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="ALO1006">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="ALP1006">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="ALQ1006">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1007" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1007">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1007">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="ALO1007">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="ALP1007">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="ALQ1007">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1008" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM1008">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1008">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="ALO1008">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="ALP1008">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="ALQ1008">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1009" spans="1001:1005" x14ac:dyDescent="0.3">
+      <c r="ALM1009">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1009">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALO1009">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="ALP1009">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="ALQ1009">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1010" spans="1001:1005" x14ac:dyDescent="0.3">
+      <c r="ALM1010">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALN1010">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="ALO1010">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="ALP1010">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="ALQ1010">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1201" spans="1201:1211" x14ac:dyDescent="0.3">
+      <c r="ATE1201">
+        <v>1</v>
+      </c>
+      <c r="ATF1201">
+        <v>1</v>
+      </c>
+      <c r="ATG1201">
+        <v>1</v>
+      </c>
+      <c r="ATH1201">
+        <v>1</v>
+      </c>
+      <c r="ATI1201">
+        <v>1</v>
+      </c>
+      <c r="ATJ1201">
+        <f t="shared" ref="ATJ1201:ATN1204" si="0">VALUE(ATE1201)</f>
+        <v>1</v>
+      </c>
+      <c r="ATK1201">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DD101">
+      <c r="ATL1201">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DE101">
+      <c r="ATM1201">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DF101">
+      <c r="ATN1201">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DG101" t="e" cm="1">
-        <f t="array" ref="DG101">MMULT(MINVERSE(DB101:DE104),DF101:DF104)</f>
+      <c r="ATO1201" t="e" cm="1">
+        <f t="array" ref="ATO1201">MMULT(MINVERSE(ATJ1201:ATM1204),ATN1201:ATN1204)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="101:111" x14ac:dyDescent="0.3">
-      <c r="CW102">
-        <v>1</v>
-      </c>
-      <c r="CX102">
-        <v>1</v>
-      </c>
-      <c r="CY102">
-        <v>1</v>
-      </c>
-      <c r="CZ102">
-        <v>1</v>
-      </c>
-      <c r="DA102">
-        <v>1</v>
-      </c>
-      <c r="DB102">
+    <row r="1202" spans="1201:1211" x14ac:dyDescent="0.3">
+      <c r="ATE1202">
+        <v>1</v>
+      </c>
+      <c r="ATF1202">
+        <v>1</v>
+      </c>
+      <c r="ATG1202">
+        <v>1</v>
+      </c>
+      <c r="ATH1202">
+        <v>1</v>
+      </c>
+      <c r="ATI1202">
+        <v>1</v>
+      </c>
+      <c r="ATJ1202">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DC102">
+      <c r="ATK1202">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DD102">
+      <c r="ATL1202">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DE102">
+      <c r="ATM1202">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DF102">
+      <c r="ATN1202">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="101:111" x14ac:dyDescent="0.3">
-      <c r="CW103">
-        <v>1</v>
-      </c>
-      <c r="CX103">
-        <v>1</v>
-      </c>
-      <c r="CY103">
-        <v>1</v>
-      </c>
-      <c r="CZ103">
-        <v>1</v>
-      </c>
-      <c r="DA103">
-        <v>1</v>
-      </c>
-      <c r="DB103">
+    <row r="1203" spans="1201:1211" x14ac:dyDescent="0.3">
+      <c r="ATE1203">
+        <v>1</v>
+      </c>
+      <c r="ATF1203">
+        <v>1</v>
+      </c>
+      <c r="ATG1203">
+        <v>1</v>
+      </c>
+      <c r="ATH1203">
+        <v>1</v>
+      </c>
+      <c r="ATI1203">
+        <v>1</v>
+      </c>
+      <c r="ATJ1203">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DC103">
+      <c r="ATK1203">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DD103">
+      <c r="ATL1203">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DE103">
+      <c r="ATM1203">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DF103">
+      <c r="ATN1203">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="101:111" x14ac:dyDescent="0.3">
-      <c r="CW104">
-        <v>1</v>
-      </c>
-      <c r="CX104">
-        <v>1</v>
-      </c>
-      <c r="CY104">
-        <v>1</v>
-      </c>
-      <c r="CZ104">
-        <v>1</v>
-      </c>
-      <c r="DA104">
-        <v>1</v>
-      </c>
-      <c r="DB104">
+    <row r="1204" spans="1201:1211" x14ac:dyDescent="0.3">
+      <c r="ATE1204">
+        <v>1</v>
+      </c>
+      <c r="ATF1204">
+        <v>1</v>
+      </c>
+      <c r="ATG1204">
+        <v>1</v>
+      </c>
+      <c r="ATH1204">
+        <v>1</v>
+      </c>
+      <c r="ATI1204">
+        <v>1</v>
+      </c>
+      <c r="ATJ1204">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DC104">
+      <c r="ATK1204">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DD104">
+      <c r="ATL1204">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DE104">
+      <c r="ATM1204">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DF104">
+      <c r="ATN1204">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS201">
-        <v>3</v>
-      </c>
-      <c r="GT201">
-        <v>1</v>
-      </c>
-      <c r="GU201">
+    <row r="1301" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1301">
+        <v>3</v>
+      </c>
+      <c r="AXB1301">
+        <v>1</v>
+      </c>
+      <c r="AXC1301">
         <v>1180</v>
       </c>
-      <c r="GV201">
+      <c r="AXD1301">
         <v>1955</v>
       </c>
-      <c r="GW201">
+      <c r="AXE1301">
         <v>221900</v>
       </c>
-      <c r="GY201" t="e" cm="1">
-        <f t="array" ref="GY201">MMULT(MINVERSE(GS201:GV210),GW201:GW210)</f>
+      <c r="AXG1301" t="e" cm="1">
+        <f t="array" ref="AXG1301">MMULT(MINVERSE(AXA1301:AXD1310),AXE1301:AXE1310)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="202" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS202">
-        <v>3</v>
-      </c>
-      <c r="GT202">
+    <row r="1302" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1302">
+        <v>3</v>
+      </c>
+      <c r="AXB1302">
         <v>2.25</v>
       </c>
-      <c r="GU202">
+      <c r="AXC1302">
         <v>2570</v>
       </c>
-      <c r="GV202">
+      <c r="AXD1302">
         <v>1951</v>
       </c>
-      <c r="GW202">
+      <c r="AXE1302">
         <v>538000</v>
       </c>
     </row>
-    <row r="203" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS203">
-        <v>2</v>
-      </c>
-      <c r="GT203">
-        <v>1</v>
-      </c>
-      <c r="GU203">
+    <row r="1303" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1303">
+        <v>2</v>
+      </c>
+      <c r="AXB1303">
+        <v>1</v>
+      </c>
+      <c r="AXC1303">
         <v>770</v>
       </c>
-      <c r="GV203">
+      <c r="AXD1303">
         <v>1933</v>
       </c>
-      <c r="GW203">
+      <c r="AXE1303">
         <v>180000</v>
       </c>
     </row>
-    <row r="204" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS204">
-        <v>4</v>
-      </c>
-      <c r="GT204">
-        <v>3</v>
-      </c>
-      <c r="GU204">
+    <row r="1304" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1304">
+        <v>4</v>
+      </c>
+      <c r="AXB1304">
+        <v>3</v>
+      </c>
+      <c r="AXC1304">
         <v>1960</v>
       </c>
-      <c r="GV204">
+      <c r="AXD1304">
         <v>1965</v>
       </c>
-      <c r="GW204">
+      <c r="AXE1304">
         <v>604000</v>
       </c>
     </row>
-    <row r="205" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS205">
-        <v>3</v>
-      </c>
-      <c r="GT205">
-        <v>2</v>
-      </c>
-      <c r="GU205">
+    <row r="1305" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1305">
+        <v>3</v>
+      </c>
+      <c r="AXB1305">
+        <v>2</v>
+      </c>
+      <c r="AXC1305">
         <v>1680</v>
       </c>
-      <c r="GV205">
+      <c r="AXD1305">
         <v>1987</v>
       </c>
-      <c r="GW205">
+      <c r="AXE1305">
         <v>510000</v>
       </c>
     </row>
-    <row r="206" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS206">
-        <v>4</v>
-      </c>
-      <c r="GT206">
+    <row r="1306" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1306">
+        <v>4</v>
+      </c>
+      <c r="AXB1306">
         <v>4.5</v>
       </c>
-      <c r="GU206">
+      <c r="AXC1306">
         <v>5420</v>
       </c>
-      <c r="GV206">
+      <c r="AXD1306">
         <v>2001</v>
       </c>
-      <c r="GW206">
+      <c r="AXE1306">
         <v>1230000</v>
       </c>
     </row>
-    <row r="207" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS207">
-        <v>3</v>
-      </c>
-      <c r="GT207">
+    <row r="1307" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1307">
+        <v>3</v>
+      </c>
+      <c r="AXB1307">
         <v>2.25</v>
       </c>
-      <c r="GU207">
+      <c r="AXC1307">
         <v>1715</v>
       </c>
-      <c r="GV207">
+      <c r="AXD1307">
         <v>1995</v>
       </c>
-      <c r="GW207">
+      <c r="AXE1307">
         <v>257500</v>
       </c>
     </row>
-    <row r="208" spans="201:207" x14ac:dyDescent="0.3">
-      <c r="GS208">
-        <v>3</v>
-      </c>
-      <c r="GT208">
+    <row r="1308" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1308">
+        <v>3</v>
+      </c>
+      <c r="AXB1308">
         <v>1.5</v>
       </c>
-      <c r="GU208">
+      <c r="AXC1308">
         <v>1060</v>
       </c>
-      <c r="GV208">
+      <c r="AXD1308">
         <v>1963</v>
       </c>
-      <c r="GW208">
+      <c r="AXE1308">
         <v>291850</v>
       </c>
     </row>
-    <row r="209" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS209">
-        <v>3</v>
-      </c>
-      <c r="GT209">
-        <v>1</v>
-      </c>
-      <c r="GU209">
+    <row r="1309" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1309">
+        <v>3</v>
+      </c>
+      <c r="AXB1309">
+        <v>1</v>
+      </c>
+      <c r="AXC1309">
         <v>1780</v>
       </c>
-      <c r="GV209">
+      <c r="AXD1309">
         <v>1960</v>
       </c>
-      <c r="GW209">
+      <c r="AXE1309">
         <v>229500</v>
       </c>
     </row>
-    <row r="210" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS210">
-        <v>3</v>
-      </c>
-      <c r="GT210">
+    <row r="1310" spans="1301:1307" x14ac:dyDescent="0.3">
+      <c r="AXA1310">
+        <v>3</v>
+      </c>
+      <c r="AXB1310">
         <v>2.5</v>
       </c>
-      <c r="GU210">
+      <c r="AXC1310">
         <v>1890</v>
       </c>
-      <c r="GV210">
+      <c r="AXD1310">
         <v>2003</v>
       </c>
-      <c r="GW210">
+      <c r="AXE1310">
         <v>323000</v>
       </c>
     </row>
-    <row r="301" spans="301:307" x14ac:dyDescent="0.3">
-      <c r="KO301">
-        <v>3</v>
-      </c>
-      <c r="KQ301">
+    <row r="1401" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1401">
+        <v>3</v>
+      </c>
+      <c r="BAY1401">
         <v>1180</v>
       </c>
-      <c r="KR301">
+      <c r="BAZ1401">
         <v>1955</v>
       </c>
-      <c r="KS301">
+      <c r="BBA1401">
         <v>221900</v>
       </c>
-      <c r="KU301" t="s">
+      <c r="BBC1401" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="301:307" x14ac:dyDescent="0.3">
-      <c r="KO302">
-        <v>3</v>
-      </c>
-      <c r="KP302">
+    <row r="1402" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1402">
+        <v>3</v>
+      </c>
+      <c r="BAX1402">
         <v>2.25</v>
       </c>
-      <c r="KQ302">
+      <c r="BAY1402">
         <v>2570</v>
       </c>
-      <c r="KR302">
+      <c r="BAZ1402">
         <v>1951</v>
       </c>
-      <c r="KS302">
+      <c r="BBA1402">
         <v>538000</v>
       </c>
     </row>
-    <row r="303" spans="301:307" x14ac:dyDescent="0.3">
-      <c r="KO303">
-        <v>2</v>
-      </c>
-      <c r="KP303">
-        <v>1</v>
-      </c>
-      <c r="KQ303">
+    <row r="1403" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1403">
+        <v>2</v>
+      </c>
+      <c r="BAX1403">
+        <v>1</v>
+      </c>
+      <c r="BAY1403">
         <v>770</v>
       </c>
-      <c r="KR303">
+      <c r="BAZ1403">
         <v>1933</v>
       </c>
-      <c r="KS303">
+      <c r="BBA1403">
         <v>180000</v>
       </c>
     </row>
-    <row r="304" spans="301:307" x14ac:dyDescent="0.3">
-      <c r="KO304">
-        <v>4</v>
-      </c>
-      <c r="KP304">
-        <v>3</v>
-      </c>
-      <c r="KQ304">
+    <row r="1404" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1404">
+        <v>4</v>
+      </c>
+      <c r="BAX1404">
+        <v>3</v>
+      </c>
+      <c r="BAY1404">
         <v>1960</v>
       </c>
-      <c r="KR304">
+      <c r="BAZ1404">
         <v>1965</v>
       </c>
-      <c r="KS304">
+      <c r="BBA1404">
         <v>604000</v>
       </c>
     </row>
-    <row r="305" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO305">
-        <v>3</v>
-      </c>
-      <c r="KP305">
-        <v>2</v>
-      </c>
-      <c r="KQ305">
+    <row r="1405" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1405">
+        <v>3</v>
+      </c>
+      <c r="BAX1405">
+        <v>2</v>
+      </c>
+      <c r="BAY1405">
         <v>1680</v>
       </c>
-      <c r="KR305">
+      <c r="BAZ1405">
         <v>1987</v>
       </c>
-      <c r="KS305">
+      <c r="BBA1405">
         <v>510000</v>
       </c>
     </row>
-    <row r="306" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO306">
-        <v>4</v>
-      </c>
-      <c r="KP306">
+    <row r="1406" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1406">
+        <v>4</v>
+      </c>
+      <c r="BAX1406">
         <v>4.5</v>
       </c>
-      <c r="KQ306">
+      <c r="BAY1406">
         <v>5420</v>
       </c>
-      <c r="KR306">
+      <c r="BAZ1406">
         <v>2001</v>
       </c>
-      <c r="KS306">
+      <c r="BBA1406">
         <v>1230000</v>
       </c>
     </row>
-    <row r="307" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO307">
-        <v>3</v>
-      </c>
-      <c r="KP307">
+    <row r="1407" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1407">
+        <v>3</v>
+      </c>
+      <c r="BAX1407">
         <v>2.25</v>
       </c>
-      <c r="KQ307">
+      <c r="BAY1407">
         <v>1715</v>
       </c>
-      <c r="KR307">
+      <c r="BAZ1407">
         <v>1995</v>
       </c>
-      <c r="KS307">
+      <c r="BBA1407">
         <v>257500</v>
       </c>
     </row>
-    <row r="308" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO308">
-        <v>3</v>
-      </c>
-      <c r="KP308">
+    <row r="1408" spans="1401:1407" x14ac:dyDescent="0.3">
+      <c r="BAW1408">
+        <v>3</v>
+      </c>
+      <c r="BAX1408">
         <v>1.5</v>
       </c>
-      <c r="KQ308">
+      <c r="BAY1408">
         <v>1060</v>
       </c>
-      <c r="KR308">
+      <c r="BAZ1408">
         <v>1963</v>
       </c>
-      <c r="KS308">
+      <c r="BBA1408">
         <v>291850</v>
       </c>
     </row>
-    <row r="309" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO309">
-        <v>3</v>
-      </c>
-      <c r="KP309">
-        <v>1</v>
-      </c>
-      <c r="KQ309">
+    <row r="1409" spans="1401:1405" x14ac:dyDescent="0.3">
+      <c r="BAW1409">
+        <v>3</v>
+      </c>
+      <c r="BAX1409">
+        <v>1</v>
+      </c>
+      <c r="BAY1409">
         <v>1750</v>
       </c>
-      <c r="KR309">
+      <c r="BAZ1409">
         <v>1960</v>
       </c>
-      <c r="KS309">
+      <c r="BBA1409">
         <v>229500</v>
       </c>
     </row>
-    <row r="310" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO310">
-        <v>3</v>
-      </c>
-      <c r="KP310">
+    <row r="1410" spans="1401:1405" x14ac:dyDescent="0.3">
+      <c r="BAW1410">
+        <v>3</v>
+      </c>
+      <c r="BAX1410">
         <v>2.5</v>
       </c>
-      <c r="KQ310">
+      <c r="BAY1410">
         <v>1890</v>
       </c>
-      <c r="KR310">
+      <c r="BAZ1410">
         <v>2003</v>
       </c>
-      <c r="KS310">
+      <c r="BBA1410">
         <v>323000</v>
       </c>
     </row>
-    <row r="401" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK401">
-        <v>2</v>
-      </c>
-      <c r="OL401">
-        <v>2</v>
-      </c>
-      <c r="OM401">
+    <row r="1501" spans="1501:1505" x14ac:dyDescent="0.3">
+      <c r="BES1501">
+        <v>2</v>
+      </c>
+      <c r="BET1501">
+        <v>2</v>
+      </c>
+      <c r="BEU1501">
         <v>2000</v>
       </c>
-      <c r="ON401">
+      <c r="BEV1501">
         <v>3215501</v>
       </c>
-      <c r="OO401">
+      <c r="BEW1501">
         <v>10301604045</v>
       </c>
     </row>
-    <row r="402" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK402">
+    <row r="1502" spans="1501:1505" x14ac:dyDescent="0.3">
+      <c r="BES1502">
         <v>10</v>
       </c>
-      <c r="OL402">
+      <c r="BET1502">
         <v>235</v>
       </c>
-      <c r="OM402">
+      <c r="BEU1502">
         <v>123</v>
       </c>
-      <c r="ON402">
+      <c r="BEV1502">
         <v>1246145</v>
       </c>
-      <c r="OO402">
+      <c r="BEW1502">
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK403">
+    <row r="1503" spans="1501:1505" x14ac:dyDescent="0.3">
+      <c r="BES1503">
         <v>461045</v>
       </c>
-      <c r="OL403">
+      <c r="BET1503">
         <v>23450</v>
       </c>
-      <c r="OM403">
+      <c r="BEU1503">
         <v>1325406</v>
       </c>
-      <c r="ON403">
+      <c r="BEV1503">
         <v>104015</v>
       </c>
-      <c r="OO403">
+      <c r="BEW1503">
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK404">
+    <row r="1504" spans="1501:1505" x14ac:dyDescent="0.3">
+      <c r="BES1504">
         <v>1045</v>
       </c>
-      <c r="OL404">
+      <c r="BET1504">
         <v>4501</v>
       </c>
-      <c r="OM404">
+      <c r="BEU1504">
         <v>540</v>
       </c>
-      <c r="ON404">
+      <c r="BEV1504">
         <v>40</v>
       </c>
-      <c r="OO404">
+      <c r="BEW1504">
         <v>104</v>
       </c>
     </row>
-    <row r="601" spans="601:605" x14ac:dyDescent="0.3">
-      <c r="WC601" s="1">
-        <v>2</v>
-      </c>
-      <c r="WD601" s="1">
-        <v>2</v>
-      </c>
-      <c r="WE601" s="1">
+    <row r="1701" spans="1701:1705" x14ac:dyDescent="0.3">
+      <c r="BMK1701" s="1">
+        <v>2</v>
+      </c>
+      <c r="BML1701" s="1">
+        <v>2</v>
+      </c>
+      <c r="BMM1701" s="1">
         <v>1400</v>
       </c>
-      <c r="WF601" s="1">
+      <c r="BMN1701" s="1">
         <v>1967</v>
       </c>
-      <c r="WG601" s="1">
+      <c r="BMO1701" s="1">
         <v>220000</v>
       </c>
     </row>
-    <row r="602" spans="601:605" x14ac:dyDescent="0.3">
-      <c r="WC602" s="1">
-        <v>3</v>
-      </c>
-      <c r="WD602" s="1">
-        <v>2</v>
-      </c>
-      <c r="WE602" s="1">
+    <row r="1702" spans="1701:1705" x14ac:dyDescent="0.3">
+      <c r="BMK1702" s="1">
+        <v>3</v>
+      </c>
+      <c r="BML1702" s="1">
+        <v>2</v>
+      </c>
+      <c r="BMM1702" s="1">
         <v>1300</v>
       </c>
-      <c r="WF602" s="1">
+      <c r="BMN1702" s="1">
         <v>1984</v>
       </c>
-      <c r="WG602" s="1">
+      <c r="BMO1702" s="1">
         <v>400200</v>
       </c>
     </row>
-    <row r="603" spans="601:605" x14ac:dyDescent="0.3">
-      <c r="WC603" s="1">
-        <v>2</v>
-      </c>
-      <c r="WD603" s="1">
-        <v>2</v>
-      </c>
-      <c r="WE603" s="1">
+    <row r="1703" spans="1701:1705" x14ac:dyDescent="0.3">
+      <c r="BMK1703" s="1">
+        <v>2</v>
+      </c>
+      <c r="BML1703" s="1">
+        <v>2</v>
+      </c>
+      <c r="BMM1703" s="1">
         <v>900</v>
       </c>
-      <c r="WF603" s="1">
+      <c r="BMN1703" s="1">
         <v>1989</v>
       </c>
-      <c r="WG603" s="1">
+      <c r="BMO1703" s="1">
         <v>250000</v>
       </c>
     </row>
-    <row r="604" spans="601:605" x14ac:dyDescent="0.3">
-      <c r="WC604" s="1">
-        <v>4</v>
-      </c>
-      <c r="WD604" s="1">
-        <v>3</v>
-      </c>
-      <c r="WE604" s="1">
+    <row r="1704" spans="1701:1705" x14ac:dyDescent="0.3">
+      <c r="BMK1704" s="1">
+        <v>4</v>
+      </c>
+      <c r="BML1704" s="1">
+        <v>3</v>
+      </c>
+      <c r="BMM1704" s="1">
         <v>2900</v>
       </c>
-      <c r="WF604" s="1">
+      <c r="BMN1704" s="1">
         <v>1955</v>
       </c>
-      <c r="WG604" s="1">
+      <c r="BMO1704" s="1">
         <v>640000</v>
       </c>
     </row>
